--- a/testDocuments/TestCases-OpenCart.xlsx
+++ b/testDocuments/TestCases-OpenCart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohai\IdeaProjects\OpenCart\Test Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohai\IdeaProjects\OpenCart\testDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FD80F-95B8-4F61-808C-6594612F9E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3959108-6365-45F1-990A-347B973DF21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="891" activeTab="2" xr2:uid="{AB1EE694-DF79-45FE-B023-350A76CFD5F6}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5054" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5054" uniqueCount="1609">
   <si>
     <t>Project Name</t>
   </si>
@@ -6141,6 +6141,9 @@
   <si>
     <t>1.	The product page functions correctly across all environments.
 2.	No UI or compatibility issues occur.</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -20293,9 +20296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0D63F6-78F3-4480-BFD9-97D35A1FF390}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -20393,7 +20396,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>193</v>
+        <v>1608</v>
       </c>
       <c r="K3" s="29"/>
     </row>
@@ -20424,7 +20427,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>193</v>
+        <v>1608</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -20455,7 +20458,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>193</v>
+        <v>1608</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -21292,6 +21295,7 @@
     <hyperlink ref="C2:K2" location="'Test-Scenarios'!A1" display="&lt;&lt;Test Scenatios" xr:uid="{7C64B30C-17DA-4B11-B75E-46B5B119510F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testDocuments/TestCases-OpenCart.xlsx
+++ b/testDocuments/TestCases-OpenCart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohai\IdeaProjects\OpenCart\testDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04611E-30C5-4A3F-B4FB-D38A658E824E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8C7EE-B3C0-4008-BA4B-1EAE48D48DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="891" activeTab="2" xr2:uid="{AB1EE694-DF79-45FE-B023-350A76CFD5F6}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="1611">
   <si>
     <t>Project Name</t>
   </si>
@@ -20303,8 +20303,8 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -20562,12 +20562,14 @@
       <c r="G8" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="29" t="s">
+        <v>1609</v>
+      </c>
       <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>192</v>
+        <v>1608</v>
       </c>
       <c r="K8" s="29"/>
     </row>
@@ -20593,12 +20595,14 @@
       <c r="G9" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="I9" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>192</v>
+        <v>1607</v>
       </c>
       <c r="K9" s="29"/>
     </row>
@@ -20629,7 +20633,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>192</v>
+        <v>1607</v>
       </c>
       <c r="K10" s="29"/>
     </row>

--- a/testDocuments/TestCases-OpenCart.xlsx
+++ b/testDocuments/TestCases-OpenCart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohai\IdeaProjects\OpenCart\testDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8C7EE-B3C0-4008-BA4B-1EAE48D48DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767C1290-7D79-4F46-98ED-1F7EBFC78586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="891" activeTab="2" xr2:uid="{AB1EE694-DF79-45FE-B023-350A76CFD5F6}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="1611">
   <si>
     <t>Project Name</t>
   </si>
@@ -20303,8 +20303,8 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -20628,7 +20628,9 @@
       <c r="G10" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="I10" s="29" t="s">
         <v>21</v>
       </c>
@@ -20659,12 +20661,14 @@
       <c r="G11" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="29" t="s">
+        <v>181</v>
+      </c>
       <c r="I11" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>192</v>
+        <v>1607</v>
       </c>
       <c r="K11" s="29"/>
     </row>
@@ -20690,12 +20694,14 @@
       <c r="G12" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="I12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>192</v>
+        <v>1607</v>
       </c>
       <c r="K12" s="29"/>
     </row>

--- a/testDocuments/TestCases-OpenCart.xlsx
+++ b/testDocuments/TestCases-OpenCart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohai\IdeaProjects\OpenCart\testDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767C1290-7D79-4F46-98ED-1F7EBFC78586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F604752-E57F-46B8-838F-0B4D9AA5D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="891" activeTab="2" xr2:uid="{AB1EE694-DF79-45FE-B023-350A76CFD5F6}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="1621">
   <si>
     <t>Project Name</t>
   </si>
@@ -6143,13 +6143,43 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>Account is created and data stored in the database</t>
-  </si>
-  <si>
     <t>First Name: faclin
 Last Name: Islam$%@
 Email: faclin2@gmail.com
 Password: faclin123</t>
+  </si>
+  <si>
+    <t>Account Success Message is displayed.</t>
+  </si>
+  <si>
+    <t>Warning Message - "Must accept the privacy policy" is displayed.</t>
+  </si>
+  <si>
+    <t>Privacy Policy is displayed.</t>
+  </si>
+  <si>
+    <t>The login page is displayed.</t>
+  </si>
+  <si>
+    <t>Data is found according to the registered user data</t>
+  </si>
+  <si>
+    <t>Warning message - "Password should be minimum 6 digits and maximum 40 digits" is displayed.</t>
+  </si>
+  <si>
+    <t>Warning Message-"Email  should not be blank" is displayed.</t>
+  </si>
+  <si>
+    <t>Warning Message-"Last name should not be blank" is displayed.</t>
+  </si>
+  <si>
+    <t>Warning Message-"First name should not be blank" is displayed.</t>
+  </si>
+  <si>
+    <t>1. Warning Message-"Invalid Email" is displayed.</t>
+  </si>
+  <si>
+    <t>Account is created and data stored in the database and Successful message is displayed.</t>
   </si>
 </sst>
 </file>
@@ -20304,7 +20334,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -20398,7 +20428,7 @@
         <v>174</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>21</v>
@@ -20408,7 +20438,7 @@
       </c>
       <c r="K3" s="29"/>
     </row>
-    <row r="4" spans="1:11" ht="92.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="129.5" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>119</v>
       </c>
@@ -20431,7 +20461,7 @@
         <v>174</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>21</v>
@@ -20441,7 +20471,7 @@
       </c>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="1:11" ht="92.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="129.5" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>120</v>
       </c>
@@ -20464,7 +20494,7 @@
         <v>178</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>21</v>
@@ -20474,7 +20504,7 @@
       </c>
       <c r="K5" s="29"/>
     </row>
-    <row r="6" spans="1:11" ht="92.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="129.5" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
@@ -20497,7 +20527,7 @@
         <v>178</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>21</v>
@@ -20507,7 +20537,7 @@
       </c>
       <c r="K6" s="29"/>
     </row>
-    <row r="7" spans="1:11" ht="92.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="129.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>122</v>
       </c>
@@ -20524,13 +20554,13 @@
         <v>215</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>179</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>21</v>
@@ -20540,7 +20570,7 @@
       </c>
       <c r="K7" s="29"/>
     </row>
-    <row r="8" spans="1:11" ht="92.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="129.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>123</v>
       </c>
@@ -20563,7 +20593,7 @@
         <v>175</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="I8" s="29" t="s">
         <v>21</v>
@@ -20596,7 +20626,7 @@
         <v>176</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>176</v>
+        <v>1619</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>21</v>
@@ -20629,7 +20659,7 @@
         <v>180</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>180</v>
+        <v>1618</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>21</v>
@@ -20662,7 +20692,7 @@
         <v>181</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>181</v>
+        <v>1617</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>21</v>
@@ -20695,7 +20725,7 @@
         <v>182</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>182</v>
+        <v>1616</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>21</v>
@@ -20705,7 +20735,7 @@
       </c>
       <c r="K12" s="29"/>
     </row>
-    <row r="13" spans="1:11" ht="92.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="166.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>128</v>
       </c>
@@ -20727,12 +20757,14 @@
       <c r="G13" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="29" t="s">
+        <v>1615</v>
+      </c>
       <c r="I13" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>192</v>
+        <v>1607</v>
       </c>
       <c r="K13" s="29"/>
     </row>
@@ -20758,7 +20790,9 @@
       <c r="G14" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="I14" s="29" t="s">
         <v>21</v>
       </c>
@@ -20789,7 +20823,9 @@
       <c r="G15" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="I15" s="29" t="s">
         <v>21</v>
       </c>
@@ -20798,7 +20834,7 @@
       </c>
       <c r="K15" s="29"/>
     </row>
-    <row r="16" spans="1:11" ht="92.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="148" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>131</v>
       </c>
@@ -20820,7 +20856,9 @@
       <c r="G16" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
@@ -20851,7 +20889,9 @@
       <c r="G17" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="29" t="s">
+        <v>1610</v>
+      </c>
       <c r="I17" s="29" t="s">
         <v>21</v>
       </c>
@@ -20882,7 +20922,9 @@
       <c r="G18" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="H18" s="29"/>
+      <c r="H18" s="29" t="s">
+        <v>1610</v>
+      </c>
       <c r="I18" s="29" t="s">
         <v>21</v>
       </c>
@@ -20913,7 +20955,9 @@
       <c r="G19" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="29" t="s">
+        <v>1610</v>
+      </c>
       <c r="I19" s="29" t="s">
         <v>21</v>
       </c>
@@ -20922,7 +20966,7 @@
       </c>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="1:11" ht="92.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="111" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>135</v>
       </c>
@@ -20944,7 +20988,9 @@
       <c r="G20" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="H20" s="29"/>
+      <c r="H20" s="29" t="s">
+        <v>1611</v>
+      </c>
       <c r="I20" s="29" t="s">
         <v>21</v>
       </c>
@@ -20975,7 +21021,9 @@
       <c r="G21" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="29" t="s">
+        <v>1610</v>
+      </c>
       <c r="I21" s="29" t="s">
         <v>21</v>
       </c>
@@ -21006,7 +21054,9 @@
       <c r="G22" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="29"/>
+      <c r="H22" s="29" t="s">
+        <v>1612</v>
+      </c>
       <c r="I22" s="29" t="s">
         <v>34</v>
       </c>
@@ -21037,7 +21087,9 @@
       <c r="G23" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="29" t="s">
+        <v>1613</v>
+      </c>
       <c r="I23" s="29" t="s">
         <v>34</v>
       </c>
@@ -21068,7 +21120,9 @@
       <c r="G24" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="29"/>
+      <c r="H24" s="29" t="s">
+        <v>1614</v>
+      </c>
       <c r="I24" s="29" t="s">
         <v>21</v>
       </c>
